--- a/documentation/MidiNoteNumbers.xlsx
+++ b/documentation/MidiNoteNumbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gugli\source\repos\the-guitar-dashboard\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gugli\source\guglielmo\the-guitar-dashboard\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7E5E6F-F10B-4BB3-A2D5-FB054EA258EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BE6354-2184-49FA-8674-E5F32570D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2670" windowWidth="28800" windowHeight="15460" xr2:uid="{1EBBCA18-7884-8B41-B58D-45E35B6460A9}"/>
+    <workbookView xWindow="31240" yWindow="0" windowWidth="19033" windowHeight="14000" xr2:uid="{1EBBCA18-7884-8B41-B58D-45E35B6460A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Reference Note</t>
   </si>
@@ -89,6 +89,9 @@
   <si>
     <t>Actual Frequency</t>
   </si>
+  <si>
+    <t>E5</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -152,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D874A22-972E-3E4B-9F9E-B0F8BF0FBC64}">
   <dimension ref="A2:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2455,6 +2458,9 @@
       <c r="B82">
         <v>76</v>
       </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
       <c r="D82">
         <f t="shared" si="8"/>
         <v>659.25511382573984</v>
